--- a/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-18/fonds-solidarite-volet-1-regional-categorie-juridique-latest.xlsx
@@ -492,13 +492,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>766310</v>
+        <v>766314</v>
       </c>
       <c r="D2" t="n">
         <v>155968</v>
       </c>
       <c r="E2" t="n">
-        <v>1429187466</v>
+        <v>1429190161</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>345534</v>
+        <v>345536</v>
       </c>
       <c r="D10" t="n">
         <v>64164</v>
       </c>
       <c r="E10" t="n">
-        <v>1817713247</v>
+        <v>1817715752</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>187834</v>
+        <v>187836</v>
       </c>
       <c r="D13" t="n">
         <v>33262</v>
       </c>
       <c r="E13" t="n">
-        <v>1165224910</v>
+        <v>1165237431</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
@@ -3731,13 +3731,13 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>88350</v>
+        <v>88352</v>
       </c>
       <c r="D81" t="n">
         <v>16598</v>
       </c>
       <c r="E81" t="n">
-        <v>499614738</v>
+        <v>499616617</v>
       </c>
       <c r="F81" t="inlineStr">
         <is>
@@ -4018,13 +4018,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>71266</v>
+        <v>71267</v>
       </c>
       <c r="D88" t="n">
         <v>12436</v>
       </c>
       <c r="E88" t="n">
-        <v>110295157</v>
+        <v>110296657</v>
       </c>
       <c r="F88" t="inlineStr">
         <is>
@@ -4141,13 +4141,13 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>18857</v>
+        <v>18858</v>
       </c>
       <c r="D91" t="n">
         <v>3383</v>
       </c>
       <c r="E91" t="n">
-        <v>75163013</v>
+        <v>75166047</v>
       </c>
       <c r="F91" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>1306136</v>
+        <v>1306141</v>
       </c>
       <c r="D121" t="n">
         <v>220385</v>
       </c>
       <c r="E121" t="n">
-        <v>2274589441</v>
+        <v>2274607696</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>633367</v>
+        <v>633400</v>
       </c>
       <c r="D129" t="n">
         <v>104966</v>
       </c>
       <c r="E129" t="n">
-        <v>3427468207</v>
+        <v>3427728680</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
@@ -5822,13 +5822,13 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>585662</v>
+        <v>585694</v>
       </c>
       <c r="D132" t="n">
         <v>90780</v>
       </c>
       <c r="E132" t="n">
-        <v>3462515283</v>
+        <v>3463052588</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
@@ -5986,13 +5986,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>26680</v>
+        <v>26682</v>
       </c>
       <c r="D136" t="n">
         <v>4272</v>
       </c>
       <c r="E136" t="n">
-        <v>143591800</v>
+        <v>143703192</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
@@ -6601,13 +6601,13 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>39928</v>
+        <v>39929</v>
       </c>
       <c r="D151" t="n">
         <v>7155</v>
       </c>
       <c r="E151" t="n">
-        <v>60363412</v>
+        <v>60367248</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
@@ -6724,13 +6724,13 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>18453</v>
+        <v>18454</v>
       </c>
       <c r="D154" t="n">
         <v>3296</v>
       </c>
       <c r="E154" t="n">
-        <v>72760118</v>
+        <v>72765909</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
@@ -6806,13 +6806,13 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>12399</v>
+        <v>12401</v>
       </c>
       <c r="D156" t="n">
         <v>2144</v>
       </c>
       <c r="E156" t="n">
-        <v>40081638</v>
+        <v>40224583</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
@@ -6970,13 +6970,13 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>4230</v>
+        <v>4231</v>
       </c>
       <c r="D160" t="n">
         <v>682</v>
       </c>
       <c r="E160" t="n">
-        <v>12505869</v>
+        <v>12512655</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
@@ -7667,13 +7667,13 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>6937</v>
+        <v>6938</v>
       </c>
       <c r="D177" t="n">
         <v>1158</v>
       </c>
       <c r="E177" t="n">
-        <v>30788203</v>
+        <v>30796837</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
@@ -8897,13 +8897,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>154660</v>
+        <v>154661</v>
       </c>
       <c r="D207" t="n">
         <v>27118</v>
       </c>
       <c r="E207" t="n">
-        <v>753642756</v>
+        <v>753651608</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
